--- a/public/modeles/export_carif.xlsx
+++ b/public/modeles/export_carif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidannebicque/Sites/oreof/public/modeles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA7F458-F6CF-F64D-B79E-B80F69C4A5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE69B9-555D-D540-A68C-5D8F8320BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{C32C33F6-18C2-C24B-97D0-9EC3ED21FBB6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Composante</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Validation CFVU</t>
+  </si>
+  <si>
+    <t>Site formation</t>
   </si>
 </sst>
 </file>
@@ -98,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,48 +417,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77676A-A835-B84D-A6BB-EAF0C65610B1}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/public/modeles/export_carif.xlsx
+++ b/public/modeles/export_carif.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidannebicque/Sites/oreof/public/modeles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE69B9-555D-D540-A68C-5D8F8320BBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847EFE51-1E60-AD4A-B941-74157F70ABBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{C32C33F6-18C2-C24B-97D0-9EC3ED21FBB6}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tableau infos Carif" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,45 +36,328 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Composante</t>
+    <t>Intitulé de la formation*</t>
   </si>
   <si>
-    <t>Type de diplôme</t>
+    <t>Objectif*</t>
   </si>
   <si>
-    <t>mention</t>
+    <t>Programme*</t>
   </si>
   <si>
-    <t>parcours</t>
+    <t>Contact de la formation*</t>
   </si>
   <si>
-    <t>Responsable Mention</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type de parcours*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En groupe (non personnalisable), Individualisé, Mixte, Modularisé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>Responsable Parcours</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Niveau d'entrée*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fin de scolarité (niveau V bis) sortie fin de 3e, Fin de scolarité (niveau VI) sortie fin de 5e, Niveau I (Bac+5 et plus), Niveau II (Bac+3 et 4), Niveau III (Bac+2), Niveau IV (Bac), Niveau V (CAP, BEP), Sans niveau spécifique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>Code RNCP</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Niveau de sortie*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fin de scolarité (niveau V bis) sortie fin de 3e, Fin de scolarité (niveau VI) sortie fin de 5e, Niveau I (Bac+5 et plus), Niveau II (Bac+3 et 4), Niveau III (Bac+2), Niveau IV (Bac), Niveau V (CAP, BEP), Sans niveau spécifique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>Régime Inscription</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modalité enseignement*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Formation entièrement à distance, formation entièrement présentielle, formation mixte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
-    <t>Validation CFVU</t>
+    <t>Prérequis*</t>
   </si>
   <si>
-    <t>Site formation</t>
+    <t>Modalités d'organisation de la formation*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durée en entreprise* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En heures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durée en centre* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>En heures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Date de début*</t>
+  </si>
+  <si>
+    <t>Date de fin*</t>
+  </si>
+  <si>
+    <t>Lieu de formation*</t>
+  </si>
+  <si>
+    <t>Période d'inscription (du … au …..)*</t>
+  </si>
+  <si>
+    <t>Adresse d'inscription*</t>
+  </si>
+  <si>
+    <t>Intitulé du parcours (le cas échéant)</t>
+  </si>
+  <si>
+    <t>Composante*</t>
+  </si>
+  <si>
+    <t>Type de formation*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -89,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -97,12 +380,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -137,7 +445,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -149,7 +457,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -196,23 +504,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -248,23 +539,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,60 +690,1268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED77676A-A835-B84D-A6BB-EAF0C65610B1}">
-  <dimension ref="A1:J1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.83203125" customWidth="1"/>
+    <col min="6" max="6" width="94.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.6640625" customWidth="1"/>
+    <col min="9" max="10" width="47.33203125" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" customWidth="1"/>
+    <col min="12" max="12" width="41.33203125" customWidth="1"/>
+    <col min="13" max="13" width="38.33203125" customWidth="1"/>
+    <col min="14" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="38" customWidth="1"/>
+    <col min="19" max="20" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20" s="4" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="3:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bcafadbe-cf53-40b1-9515-01a772dc4e95" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000964B0DDDF50EB449F020450C3A68F1E" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="9be0e6956a7e808bd378c1cbf4cd2586">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bcafadbe-cf53-40b1-9515-01a772dc4e95" xmlns:ns4="f4c4cb0f-98ce-4c22-bc37-5a2d0c18d700" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7db7332bfef302ae345b87ce75294571" ns3:_="" ns4:_="">
+    <xsd:import namespace="bcafadbe-cf53-40b1-9515-01a772dc4e95"/>
+    <xsd:import namespace="f4c4cb0f-98ce-4c22-bc37-5a2d0c18d700"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bcafadbe-cf53-40b1-9515-01a772dc4e95" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f4c4cb0f-98ce-4c22-bc37-5a2d0c18d700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Partagé avec" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Partagé avec détails" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Partage du hachage d’indicateur" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F409AF52-A751-4ECB-8A5D-B5E46EB7A78A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bcafadbe-cf53-40b1-9515-01a772dc4e95"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B6D787-03F2-4C0B-B023-CD81671EB072}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B84BB59-4C14-4B2C-9B7B-E41E14F05204}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bcafadbe-cf53-40b1-9515-01a772dc4e95"/>
+    <ds:schemaRef ds:uri="f4c4cb0f-98ce-4c22-bc37-5a2d0c18d700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>